--- a/output/dati_azioni_completo_2025-12-04.xlsx
+++ b/output/dati_azioni_completo_2025-12-04.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,405 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Shares Outstanding</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Float Shares</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insider Ownership</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Institutional Ownership</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Prev Close</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Open (Daily)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Gap %</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>VWAP</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>VWAP %</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>High Pre-Market</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Open vs Pre-Market %</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Close_10:30</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Close_11:00</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Close_12:00</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Close_14:00</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>High_30m</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Low_30m</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_30m</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_30m</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>High_1h</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Low_1h</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_1h</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_1h</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>High_90m</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Low_90m</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_90m</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_90m</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>High_4h</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Low_4h</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_4h</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_4h</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>High_1m</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Low_1m</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_1m</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_1m</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>High_5m</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Low_5m</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_5m</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Break_PMH_5m</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KALA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7914175</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8209725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7930000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01858</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.17287001</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M2" t="n">
+        <v>179354800</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O2" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-13.94</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>44183095</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>66913582</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>144589788</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>437593948</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>24368004</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>24368004</v>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>